--- a/environment/assets/Comm/matrix/curr_maze/new_maze.xlsx
+++ b/environment/assets/Comm/matrix/curr_maze/new_maze.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="63">
   <si>
     <t>*</t>
   </si>
@@ -176,6 +176,9 @@
     <t>李四饭店</t>
   </si>
   <si>
+    <t>社区公园</t>
+  </si>
+  <si>
     <t>货架区 李华超市</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
   </si>
   <si>
     <t>烹饪区域 厨房 李四饭店</t>
+  </si>
+  <si>
+    <t>公园空地 社区公园 社区公园</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1448,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R8" workbookViewId="0">
-      <selection activeCell="CC26" sqref="CC26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="BM23" sqref="BM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.725" defaultRowHeight="28.3" customHeight="1"/>
@@ -1932,6 +1938,14 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
       <c r="BY3" s="3"/>
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
@@ -2089,6 +2103,20 @@
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
       <c r="BY4" s="3"/>
       <c r="BZ4" s="3"/>
       <c r="CA4" s="3"/>
@@ -2246,6 +2274,20 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
       <c r="BZ5" s="3"/>
       <c r="CA5" s="3"/>
@@ -2403,6 +2445,20 @@
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="3"/>
       <c r="CA6" s="3"/>
@@ -2560,6 +2616,20 @@
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="3"/>
       <c r="CA7" s="3"/>
@@ -2717,6 +2787,20 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
       <c r="BY8" s="3"/>
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
@@ -2874,6 +2958,20 @@
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
       <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
       <c r="BY9" s="3"/>
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
@@ -3031,6 +3129,20 @@
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
       <c r="BY10" s="3"/>
       <c r="BZ10" s="3"/>
       <c r="CA10" s="3"/>
@@ -3188,6 +3300,20 @@
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
       <c r="BY11" s="3"/>
       <c r="BZ11" s="3"/>
       <c r="CA11" s="3"/>
@@ -3345,6 +3471,20 @@
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
       <c r="BY12" s="3"/>
       <c r="BZ12" s="3"/>
       <c r="CA12" s="3"/>
@@ -3502,6 +3642,20 @@
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
       <c r="BY13" s="3"/>
       <c r="BZ13" s="3"/>
       <c r="CA13" s="3"/>
@@ -3659,6 +3813,20 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
       <c r="BY14" s="3"/>
       <c r="BZ14" s="3"/>
       <c r="CA14" s="3"/>
@@ -3816,6 +3984,20 @@
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
       <c r="BY15" s="3"/>
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
@@ -3973,6 +4155,20 @@
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
       <c r="BY16" s="3"/>
       <c r="BZ16" s="3"/>
       <c r="CA16" s="3"/>
@@ -4130,6 +4326,20 @@
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
       <c r="BY17" s="3"/>
       <c r="BZ17" s="3"/>
       <c r="CA17" s="3"/>
@@ -4287,6 +4497,20 @@
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
       <c r="BY18" s="3"/>
       <c r="BZ18" s="3"/>
       <c r="CA18" s="3"/>
@@ -4444,6 +4668,20 @@
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
       <c r="BY19" s="3"/>
       <c r="BZ19" s="3"/>
       <c r="CA19" s="3"/>
@@ -4601,6 +4839,20 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
       <c r="BY20" s="3"/>
       <c r="BZ20" s="3"/>
       <c r="CA20" s="3"/>
@@ -4758,6 +5010,20 @@
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
       <c r="BY21" s="3"/>
       <c r="BZ21" s="3"/>
       <c r="CA21" s="3"/>
@@ -5109,10 +5375,10 @@
       <c r="BY25" s="3"/>
       <c r="BZ25" s="3"/>
       <c r="CA25" s="3"/>
-      <c r="CB25" s="3"/>
-      <c r="CC25" s="9" t="s">
+      <c r="CB25" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="CC25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="1:81">
       <c r="A26" s="2" t="s">
@@ -5196,10 +5462,10 @@
       <c r="BY26" s="3"/>
       <c r="BZ26" s="3"/>
       <c r="CA26" s="3"/>
-      <c r="CB26" s="3"/>
-      <c r="CC26" s="9" t="s">
+      <c r="CB26" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="CC26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:81">
       <c r="A27" s="2" t="s">
@@ -5256,10 +5522,10 @@
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
       <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
       <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="2"/>
@@ -5343,10 +5609,10 @@
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
+      <c r="BA28" s="2"/>
       <c r="BB28" s="3"/>
       <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
+      <c r="BD28" s="2"/>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
       <c r="BG28" s="3"/>
@@ -5430,10 +5696,10 @@
       <c r="AX29" s="3"/>
       <c r="AY29" s="3"/>
       <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
+      <c r="BA29" s="2"/>
       <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
+      <c r="BD29" s="2"/>
       <c r="BE29" s="3"/>
       <c r="BF29" s="3"/>
       <c r="BG29" s="3"/>
@@ -5582,22 +5848,54 @@
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
-      <c r="BD30" s="3"/>
-      <c r="BE30" s="3"/>
-      <c r="BF30" s="3"/>
-      <c r="BG30" s="3"/>
+      <c r="AR30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG30" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
@@ -5633,52 +5931,52 @@
         <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>47</v>
@@ -5687,55 +5985,55 @@
         <v>48</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y31" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Z31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA31" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AB31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC31" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AD31" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM31" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM31" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN31" s="2" t="s">
         <v>48</v>
@@ -5743,22 +6041,54 @@
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="3"/>
-      <c r="BA31" s="3"/>
-      <c r="BB31" s="3"/>
-      <c r="BC31" s="3"/>
-      <c r="BD31" s="3"/>
-      <c r="BE31" s="3"/>
-      <c r="BF31" s="3"/>
-      <c r="BG31" s="3"/>
+      <c r="AR31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG31" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
@@ -5794,52 +6124,52 @@
         <v>47</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>47</v>
@@ -5848,55 +6178,55 @@
         <v>48</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y32" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Z32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA32" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AB32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC32" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AD32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM32" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM32" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN32" s="2" t="s">
         <v>48</v>
@@ -5904,22 +6234,54 @@
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3"/>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="3"/>
-      <c r="BC32" s="3"/>
-      <c r="BD32" s="3"/>
-      <c r="BE32" s="3"/>
-      <c r="BF32" s="3"/>
-      <c r="BG32" s="3"/>
+      <c r="AR32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG32" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
@@ -5955,52 +6317,52 @@
         <v>47</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>47</v>
@@ -6009,55 +6371,55 @@
         <v>48</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF33" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM33" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM33" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN33" s="2" t="s">
         <v>48</v>
@@ -6065,22 +6427,54 @@
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
+      <c r="AR33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG33" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
@@ -6116,52 +6510,52 @@
         <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>47</v>
@@ -6170,55 +6564,55 @@
         <v>48</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM34" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM34" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN34" s="2" t="s">
         <v>48</v>
@@ -6226,22 +6620,54 @@
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
+      <c r="AR34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG34" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
@@ -6277,43 +6703,43 @@
         <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>47</v>
@@ -6331,55 +6757,55 @@
         <v>48</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AG35" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM35" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM35" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN35" s="2" t="s">
         <v>48</v>
@@ -6387,22 +6813,54 @@
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
+      <c r="AR35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG35" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
@@ -6438,43 +6896,43 @@
         <v>47</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>47</v>
@@ -6492,31 +6950,31 @@
         <v>48</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y36" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Z36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA36" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AB36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC36" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AD36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>48</v>
@@ -6531,16 +6989,16 @@
         <v>48</v>
       </c>
       <c r="AJ36" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM36" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM36" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN36" s="2" t="s">
         <v>48</v>
@@ -6548,22 +7006,54 @@
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
-      <c r="BD36" s="3"/>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
+      <c r="AR36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG36" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
@@ -6599,43 +7089,43 @@
         <v>47</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="Q37" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>47</v>
@@ -6653,31 +7143,31 @@
         <v>48</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y37" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Z37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA37" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AB37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC37" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AD37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF37" s="3" t="s">
         <v>48</v>
@@ -6692,16 +7182,16 @@
         <v>48</v>
       </c>
       <c r="AJ37" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM37" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="AM37" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AN37" s="2" t="s">
         <v>48</v>
@@ -6709,22 +7199,54 @@
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
-      <c r="BC37" s="3"/>
-      <c r="BD37" s="3"/>
-      <c r="BE37" s="3"/>
-      <c r="BF37" s="3"/>
-      <c r="BG37" s="3"/>
+      <c r="AR37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG37" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
@@ -6870,22 +7392,54 @@
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
-      <c r="AU38" s="3"/>
-      <c r="AV38" s="3"/>
-      <c r="AW38" s="3"/>
-      <c r="AX38" s="3"/>
-      <c r="AY38" s="3"/>
-      <c r="AZ38" s="3"/>
-      <c r="BA38" s="3"/>
-      <c r="BB38" s="3"/>
-      <c r="BC38" s="3"/>
-      <c r="BD38" s="3"/>
-      <c r="BE38" s="3"/>
-      <c r="BF38" s="3"/>
-      <c r="BG38" s="3"/>
+      <c r="AR38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG38" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
@@ -6957,22 +7511,54 @@
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="3"/>
-      <c r="BD39" s="3"/>
-      <c r="BE39" s="3"/>
-      <c r="BF39" s="3"/>
-      <c r="BG39" s="3"/>
+      <c r="AR39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG39" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
       <c r="BJ39" s="3"/>
@@ -7044,22 +7630,54 @@
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3"/>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
+      <c r="AR40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG40" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH40" s="3"/>
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
@@ -7131,22 +7749,54 @@
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
+      <c r="AR41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG41" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3"/>
@@ -7218,22 +7868,54 @@
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3"/>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
-      <c r="BE42" s="3"/>
-      <c r="BF42" s="3"/>
-      <c r="BG42" s="3"/>
+      <c r="AR42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG42" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>

--- a/environment/assets/Comm/matrix/curr_maze/new_maze.xlsx
+++ b/environment/assets/Comm/matrix/curr_maze/new_maze.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="13545" windowHeight="21660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="63">
-  <si>
-    <t>*</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="62">
   <si>
     <t>7号楼李华业主家</t>
   </si>
@@ -1448,8 +1445,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="BM23" sqref="BM23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="U12" workbookViewId="0">
+      <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.725" defaultRowHeight="28.3" customHeight="1"/>
@@ -1458,254 +1455,90 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:81">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:81">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1785,99 +1618,95 @@
       <c r="BZ2" s="3"/>
       <c r="CA2" s="3"/>
       <c r="CB2" s="3"/>
-      <c r="CC2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:81">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -1893,46 +1722,46 @@
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
@@ -1950,99 +1779,95 @@
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
       <c r="CB3" s="3"/>
-      <c r="CC3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:81">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -2058,46 +1883,46 @@
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AW4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AZ4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AZ4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BC4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="BF4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
@@ -2121,99 +1946,95 @@
       <c r="BZ4" s="3"/>
       <c r="CA4" s="3"/>
       <c r="CB4" s="3"/>
-      <c r="CC4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:81">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="W5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -2229,46 +2050,46 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AU5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY5" s="4" t="s">
+      <c r="AZ5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AZ5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="BE5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
@@ -2292,99 +2113,95 @@
       <c r="BZ5" s="3"/>
       <c r="CA5" s="3"/>
       <c r="CB5" s="3"/>
-      <c r="CC5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:81">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="W6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -2400,46 +2217,46 @@
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
@@ -2463,99 +2280,95 @@
       <c r="BZ6" s="3"/>
       <c r="CA6" s="3"/>
       <c r="CB6" s="3"/>
-      <c r="CC6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:81">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="W7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
@@ -2571,46 +2384,46 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AV7" s="5" t="s">
+      <c r="BC7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="BD7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
@@ -2634,99 +2447,95 @@
       <c r="BZ7" s="3"/>
       <c r="CA7" s="3"/>
       <c r="CB7" s="3"/>
-      <c r="CC7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:81">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="W8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
@@ -2742,46 +2551,46 @@
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BF8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
@@ -2805,99 +2614,95 @@
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
       <c r="CB8" s="3"/>
-      <c r="CC8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:81">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="Y9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
@@ -2913,46 +2718,46 @@
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
@@ -2976,99 +2781,95 @@
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
       <c r="CB9" s="3"/>
-      <c r="CC9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:81">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -3084,46 +2885,46 @@
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
@@ -3147,99 +2948,95 @@
       <c r="BZ10" s="3"/>
       <c r="CA10" s="3"/>
       <c r="CB10" s="3"/>
-      <c r="CC10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:81">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -3255,46 +3052,46 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG11" s="3"/>
       <c r="BH11" s="3"/>
@@ -3318,99 +3115,95 @@
       <c r="BZ11" s="3"/>
       <c r="CA11" s="3"/>
       <c r="CB11" s="3"/>
-      <c r="CC11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:81">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -3426,46 +3219,46 @@
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
@@ -3489,99 +3282,95 @@
       <c r="BZ12" s="3"/>
       <c r="CA12" s="3"/>
       <c r="CB12" s="3"/>
-      <c r="CC12" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC12" s="2"/>
     </row>
     <row r="13" customHeight="1" spans="1:81">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
@@ -3597,46 +3386,46 @@
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
@@ -3660,99 +3449,95 @@
       <c r="BZ13" s="3"/>
       <c r="CA13" s="3"/>
       <c r="CB13" s="3"/>
-      <c r="CC13" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC13" s="2"/>
     </row>
     <row r="14" customHeight="1" spans="1:81">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -3768,46 +3553,46 @@
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG14" s="3"/>
       <c r="BH14" s="3"/>
@@ -3831,99 +3616,95 @@
       <c r="BZ14" s="3"/>
       <c r="CA14" s="3"/>
       <c r="CB14" s="3"/>
-      <c r="CC14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC14" s="2"/>
     </row>
     <row r="15" customHeight="1" spans="1:81">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="AE15" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -3939,46 +3720,46 @@
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
@@ -4002,99 +3783,95 @@
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
       <c r="CB15" s="3"/>
-      <c r="CC15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:81">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="Z16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="AA16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="AD16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -4110,46 +3887,46 @@
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
@@ -4173,99 +3950,95 @@
       <c r="BZ16" s="3"/>
       <c r="CA16" s="3"/>
       <c r="CB16" s="3"/>
-      <c r="CC16" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC16" s="2"/>
     </row>
     <row r="17" customHeight="1" spans="1:81">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -4281,46 +4054,46 @@
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW17" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="AX17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AY17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
@@ -4344,99 +4117,95 @@
       <c r="BZ17" s="3"/>
       <c r="CA17" s="3"/>
       <c r="CB17" s="3"/>
-      <c r="CC17" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC17" s="2"/>
     </row>
     <row r="18" customHeight="1" spans="1:81">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
@@ -4452,46 +4221,46 @@
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AX18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AY18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
@@ -4515,99 +4284,95 @@
       <c r="BZ18" s="3"/>
       <c r="CA18" s="3"/>
       <c r="CB18" s="3"/>
-      <c r="CC18" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC18" s="2"/>
     </row>
     <row r="19" customHeight="1" spans="1:81">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="Z19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
@@ -4623,46 +4388,46 @@
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
@@ -4686,99 +4451,95 @@
       <c r="BZ19" s="3"/>
       <c r="CA19" s="3"/>
       <c r="CB19" s="3"/>
-      <c r="CC19" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC19" s="2"/>
     </row>
     <row r="20" customHeight="1" spans="1:81">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="AE20" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -4794,46 +4555,46 @@
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG20" s="3"/>
       <c r="BH20" s="3"/>
@@ -4857,99 +4618,95 @@
       <c r="BZ20" s="3"/>
       <c r="CA20" s="3"/>
       <c r="CB20" s="3"/>
-      <c r="CC20" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC20" s="2"/>
     </row>
     <row r="21" customHeight="1" spans="1:81">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="T21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -4965,46 +4722,46 @@
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG21" s="3"/>
       <c r="BH21" s="3"/>
@@ -5028,14 +4785,10 @@
       <c r="BZ21" s="3"/>
       <c r="CA21" s="3"/>
       <c r="CB21" s="3"/>
-      <c r="CC21" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC21" s="2"/>
     </row>
     <row r="22" customHeight="1" spans="1:81">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5115,14 +4868,10 @@
       <c r="BZ22" s="3"/>
       <c r="CA22" s="3"/>
       <c r="CB22" s="3"/>
-      <c r="CC22" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC22" s="2"/>
     </row>
     <row r="23" customHeight="1" spans="1:81">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5202,14 +4951,10 @@
       <c r="BZ23" s="3"/>
       <c r="CA23" s="3"/>
       <c r="CB23" s="3"/>
-      <c r="CC23" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="1:81">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5289,14 +5034,10 @@
       <c r="BZ24" s="2"/>
       <c r="CA24" s="2"/>
       <c r="CB24" s="2"/>
-      <c r="CC24" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="1:81">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5376,14 +5117,12 @@
       <c r="BZ25" s="3"/>
       <c r="CA25" s="3"/>
       <c r="CB25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CC25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="1:81">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5463,14 +5202,12 @@
       <c r="BZ26" s="3"/>
       <c r="CA26" s="3"/>
       <c r="CB26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CC26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:81">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5550,14 +5287,10 @@
       <c r="BZ27" s="2"/>
       <c r="CA27" s="2"/>
       <c r="CB27" s="2"/>
-      <c r="CC27" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC27" s="2"/>
     </row>
     <row r="28" customHeight="1" spans="1:81">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5637,14 +5370,10 @@
       <c r="BZ28" s="3"/>
       <c r="CA28" s="3"/>
       <c r="CB28" s="3"/>
-      <c r="CC28" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC28" s="2"/>
     </row>
     <row r="29" customHeight="1" spans="1:81">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5724,177 +5453,173 @@
       <c r="BZ29" s="3"/>
       <c r="CA29" s="3"/>
       <c r="CB29" s="3"/>
-      <c r="CC29" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC29" s="2"/>
     </row>
     <row r="30" customHeight="1" spans="1:81">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="X30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="Y30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="Z30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="AA30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="AB30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="AC30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="AD30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="AE30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="AF30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="AH30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="AI30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="AJ30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="AK30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="AL30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="AM30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM30" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AN30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AY30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BA30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BD30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
@@ -5917,177 +5642,173 @@
       <c r="BZ30" s="3"/>
       <c r="CA30" s="3"/>
       <c r="CB30" s="3"/>
-      <c r="CC30" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC30" s="2"/>
     </row>
     <row r="31" customHeight="1" spans="1:81">
-      <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T31" s="4" t="s">
+      <c r="W31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="X31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31" s="4" t="s">
+      <c r="AG31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG31" s="4" t="s">
+      <c r="AH31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI31" s="4" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ31" s="2" t="s">
+      <c r="AK31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL31" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AM31" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
@@ -6110,177 +5831,173 @@
       <c r="BZ31" s="3"/>
       <c r="CA31" s="3"/>
       <c r="CB31" s="3"/>
-      <c r="CC31" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC31" s="2"/>
     </row>
     <row r="32" customHeight="1" spans="1:81">
-      <c r="A32" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T32" s="4" t="s">
+      <c r="W32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="X32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X32" s="4" t="s">
+      <c r="AG32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG32" s="4" t="s">
+      <c r="AH32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AI32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI32" s="4" t="s">
+      <c r="AJ32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ32" s="2" t="s">
+      <c r="AK32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL32" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AM32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
@@ -6303,177 +6020,173 @@
       <c r="BZ32" s="3"/>
       <c r="CA32" s="3"/>
       <c r="CB32" s="3"/>
-      <c r="CC32" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC32" s="2"/>
     </row>
     <row r="33" customHeight="1" spans="1:81">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T33" s="4" t="s">
+      <c r="W33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="X33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF33" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AG33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AI33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI33" s="4" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ33" s="2" t="s">
+      <c r="AK33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL33" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AM33" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
@@ -6496,177 +6209,173 @@
       <c r="BZ33" s="3"/>
       <c r="CA33" s="3"/>
       <c r="CB33" s="3"/>
-      <c r="CC33" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC33" s="2"/>
     </row>
     <row r="34" customHeight="1" spans="1:81">
-      <c r="A34" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T34" s="4" t="s">
+      <c r="W34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="X34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF34" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AG34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AI34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI34" s="4" t="s">
+      <c r="AJ34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ34" s="2" t="s">
+      <c r="AK34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL34" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AM34" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
@@ -6689,177 +6398,173 @@
       <c r="BZ34" s="3"/>
       <c r="CA34" s="3"/>
       <c r="CB34" s="3"/>
-      <c r="CC34" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC34" s="2"/>
     </row>
     <row r="35" customHeight="1" spans="1:81">
-      <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R35" s="3" t="s">
+      <c r="W35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="AG35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN35" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
@@ -6882,177 +6587,173 @@
       <c r="BZ35" s="3"/>
       <c r="CA35" s="3"/>
       <c r="CB35" s="3"/>
-      <c r="CC35" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC35" s="2"/>
     </row>
     <row r="36" customHeight="1" spans="1:81">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R36" s="3" t="s">
+      <c r="W36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="AG36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="AH36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="AI36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI36" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AJ36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL36" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AM36" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
@@ -7075,177 +6776,173 @@
       <c r="BZ36" s="3"/>
       <c r="CA36" s="3"/>
       <c r="CB36" s="3"/>
-      <c r="CC36" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC36" s="2"/>
     </row>
     <row r="37" customHeight="1" spans="1:81">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R37" s="3" t="s">
+      <c r="W37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="AG37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="AH37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="AI37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI37" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AJ37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL37" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AM37" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
@@ -7268,177 +6965,173 @@
       <c r="BZ37" s="3"/>
       <c r="CA37" s="3"/>
       <c r="CB37" s="3"/>
-      <c r="CC37" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC37" s="2"/>
     </row>
     <row r="38" customHeight="1" spans="1:81">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="W38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="X38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="Y38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="Z38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="AA38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="AB38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="AC38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="AD38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="AE38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="AF38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="AJ38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="AK38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="AL38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="AM38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM38" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AN38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
@@ -7461,14 +7154,10 @@
       <c r="BZ38" s="3"/>
       <c r="CA38" s="3"/>
       <c r="CB38" s="3"/>
-      <c r="CC38" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC38" s="2"/>
     </row>
     <row r="39" customHeight="1" spans="1:81">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7512,52 +7201,52 @@
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
@@ -7580,14 +7269,10 @@
       <c r="BZ39" s="3"/>
       <c r="CA39" s="3"/>
       <c r="CB39" s="3"/>
-      <c r="CC39" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC39" s="2"/>
     </row>
     <row r="40" customHeight="1" spans="1:81">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -7631,52 +7316,52 @@
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH40" s="3"/>
       <c r="BI40" s="3"/>
@@ -7699,14 +7384,10 @@
       <c r="BZ40" s="3"/>
       <c r="CA40" s="3"/>
       <c r="CB40" s="3"/>
-      <c r="CC40" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC40" s="2"/>
     </row>
     <row r="41" customHeight="1" spans="1:81">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7750,52 +7431,52 @@
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AZ41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BA41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
@@ -7818,14 +7499,10 @@
       <c r="BZ41" s="3"/>
       <c r="CA41" s="3"/>
       <c r="CB41" s="3"/>
-      <c r="CC41" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC41" s="2"/>
     </row>
     <row r="42" customHeight="1" spans="1:81">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -7869,52 +7546,52 @@
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AX42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AY42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BA42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BD42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
@@ -7937,14 +7614,10 @@
       <c r="BZ42" s="3"/>
       <c r="CA42" s="3"/>
       <c r="CB42" s="3"/>
-      <c r="CC42" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC42" s="2"/>
     </row>
     <row r="43" customHeight="1" spans="1:81">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8024,14 +7697,10 @@
       <c r="BZ43" s="3"/>
       <c r="CA43" s="3"/>
       <c r="CB43" s="3"/>
-      <c r="CC43" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC43" s="2"/>
     </row>
     <row r="44" customHeight="1" spans="1:81">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8111,14 +7780,10 @@
       <c r="BZ44" s="3"/>
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
-      <c r="CC44" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC44" s="2"/>
     </row>
     <row r="45" customHeight="1" spans="1:81">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8198,14 +7863,10 @@
       <c r="BZ45" s="3"/>
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
-      <c r="CC45" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC45" s="2"/>
     </row>
     <row r="46" customHeight="1" spans="1:81">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8285,14 +7946,10 @@
       <c r="BZ46" s="3"/>
       <c r="CA46" s="3"/>
       <c r="CB46" s="3"/>
-      <c r="CC46" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC46" s="2"/>
     </row>
     <row r="47" customHeight="1" spans="1:81">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8372,14 +8029,10 @@
       <c r="BZ47" s="3"/>
       <c r="CA47" s="3"/>
       <c r="CB47" s="3"/>
-      <c r="CC47" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC47" s="2"/>
     </row>
     <row r="48" customHeight="1" spans="1:81">
-      <c r="A48" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8459,14 +8112,10 @@
       <c r="BZ48" s="3"/>
       <c r="CA48" s="3"/>
       <c r="CB48" s="3"/>
-      <c r="CC48" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC48" s="2"/>
     </row>
     <row r="49" customHeight="1" spans="1:81">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8546,14 +8195,10 @@
       <c r="BZ49" s="3"/>
       <c r="CA49" s="3"/>
       <c r="CB49" s="3"/>
-      <c r="CC49" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC49" s="2"/>
     </row>
     <row r="50" customHeight="1" spans="1:81">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8633,14 +8278,10 @@
       <c r="BZ50" s="3"/>
       <c r="CA50" s="3"/>
       <c r="CB50" s="3"/>
-      <c r="CC50" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC50" s="2"/>
     </row>
     <row r="51" customHeight="1" spans="1:81">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8720,14 +8361,10 @@
       <c r="BZ51" s="3"/>
       <c r="CA51" s="3"/>
       <c r="CB51" s="3"/>
-      <c r="CC51" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC51" s="2"/>
     </row>
     <row r="52" customHeight="1" spans="1:81">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -8807,14 +8444,10 @@
       <c r="BZ52" s="3"/>
       <c r="CA52" s="3"/>
       <c r="CB52" s="3"/>
-      <c r="CC52" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC52" s="2"/>
     </row>
     <row r="53" customHeight="1" spans="1:81">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -8894,14 +8527,10 @@
       <c r="BZ53" s="3"/>
       <c r="CA53" s="3"/>
       <c r="CB53" s="3"/>
-      <c r="CC53" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC53" s="2"/>
     </row>
     <row r="54" customHeight="1" spans="1:81">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -8981,14 +8610,10 @@
       <c r="BZ54" s="3"/>
       <c r="CA54" s="3"/>
       <c r="CB54" s="3"/>
-      <c r="CC54" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC54" s="2"/>
     </row>
     <row r="55" customHeight="1" spans="1:81">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -9068,14 +8693,10 @@
       <c r="BZ55" s="3"/>
       <c r="CA55" s="3"/>
       <c r="CB55" s="3"/>
-      <c r="CC55" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC55" s="2"/>
     </row>
     <row r="56" customHeight="1" spans="1:81">
-      <c r="A56" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -9155,14 +8776,10 @@
       <c r="BZ56" s="3"/>
       <c r="CA56" s="3"/>
       <c r="CB56" s="3"/>
-      <c r="CC56" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC56" s="2"/>
     </row>
     <row r="57" customHeight="1" spans="1:81">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -9242,14 +8859,10 @@
       <c r="BZ57" s="3"/>
       <c r="CA57" s="3"/>
       <c r="CB57" s="3"/>
-      <c r="CC57" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC57" s="2"/>
     </row>
     <row r="58" customHeight="1" spans="1:81">
-      <c r="A58" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -9329,14 +8942,10 @@
       <c r="BZ58" s="3"/>
       <c r="CA58" s="3"/>
       <c r="CB58" s="3"/>
-      <c r="CC58" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC58" s="2"/>
     </row>
     <row r="59" customHeight="1" spans="1:81">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -9416,254 +9025,90 @@
       <c r="BZ59" s="3"/>
       <c r="CA59" s="3"/>
       <c r="CB59" s="3"/>
-      <c r="CC59" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CC59" s="2"/>
     </row>
     <row r="60" customHeight="1" spans="1:81">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC60" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2"/>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="2"/>
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BJ60" s="2"/>
+      <c r="BK60" s="2"/>
+      <c r="BL60" s="2"/>
+      <c r="BM60" s="2"/>
+      <c r="BN60" s="2"/>
+      <c r="BO60" s="2"/>
+      <c r="BP60" s="2"/>
+      <c r="BQ60" s="2"/>
+      <c r="BR60" s="2"/>
+      <c r="BS60" s="2"/>
+      <c r="BT60" s="2"/>
+      <c r="BU60" s="2"/>
+      <c r="BV60" s="2"/>
+      <c r="BW60" s="2"/>
+      <c r="BX60" s="2"/>
+      <c r="BY60" s="2"/>
+      <c r="BZ60" s="2"/>
+      <c r="CA60" s="2"/>
+      <c r="CB60" s="2"/>
+      <c r="CC60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
